--- a/SEIR/Italy_infected.xlsx
+++ b/SEIR/Italy_infected.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Chuan\Documents\GitHub\Research\SEIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chuan\Documents\GitHub\Research\SEIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5994B3E-50AB-4832-A85B-DCC06AD87A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E689DE66-6E64-4301-B348-8FC542729347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E74200B-400A-4CFD-9A9B-BC00F0878F3B}"/>
+    <workbookView xWindow="-19320" yWindow="-5505" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{4E74200B-400A-4CFD-9A9B-BC00F0878F3B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Italy" sheetId="2" r:id="rId1"/>
+    <sheet name="SouthKorea" sheetId="3" r:id="rId2"/>
+    <sheet name="France" sheetId="6" r:id="rId3"/>
+    <sheet name="Germany" sheetId="4" r:id="rId4"/>
+    <sheet name="Spain" sheetId="5" r:id="rId5"/>
+    <sheet name="US" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
-  <si>
-    <t>Italy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="58">
   <si>
     <t>infected</t>
   </si>
@@ -45,12 +48,177 @@
   <si>
     <t>death</t>
   </si>
+  <si>
+    <t>22-JAN-2020</t>
+  </si>
+  <si>
+    <t>23-JAN-2020</t>
+  </si>
+  <si>
+    <t>24-JAN-2020</t>
+  </si>
+  <si>
+    <t>25-JAN-2020</t>
+  </si>
+  <si>
+    <t>26-JAN-2020</t>
+  </si>
+  <si>
+    <t>27-JAN-2020</t>
+  </si>
+  <si>
+    <t>28-JAN-2020</t>
+  </si>
+  <si>
+    <t>29-JAN-2020</t>
+  </si>
+  <si>
+    <t>30-JAN-2020</t>
+  </si>
+  <si>
+    <t>31-JAN-2020</t>
+  </si>
+  <si>
+    <t>01-FEB-2020</t>
+  </si>
+  <si>
+    <t>02-FEB-2020</t>
+  </si>
+  <si>
+    <t>03-FEB-2020</t>
+  </si>
+  <si>
+    <t>04-FEB-2020</t>
+  </si>
+  <si>
+    <t>05-FEB-2020</t>
+  </si>
+  <si>
+    <t>06-FEB-2020</t>
+  </si>
+  <si>
+    <t>07-FEB-2020</t>
+  </si>
+  <si>
+    <t>08-FEB-2020</t>
+  </si>
+  <si>
+    <t>09-FEB-2020</t>
+  </si>
+  <si>
+    <t>10-FEB-2020</t>
+  </si>
+  <si>
+    <t>11-FEB-2020</t>
+  </si>
+  <si>
+    <t>12-FEB-2020</t>
+  </si>
+  <si>
+    <t>13-FEB-2020</t>
+  </si>
+  <si>
+    <t>14-FEB-2020</t>
+  </si>
+  <si>
+    <t>15-FEB-2020</t>
+  </si>
+  <si>
+    <t>16-FEB-2020</t>
+  </si>
+  <si>
+    <t>17-FEB-2020</t>
+  </si>
+  <si>
+    <t>18-FEB-2020</t>
+  </si>
+  <si>
+    <t>19-FEB-2020</t>
+  </si>
+  <si>
+    <t>20-FEB-2020</t>
+  </si>
+  <si>
+    <t>21-FEB-2020</t>
+  </si>
+  <si>
+    <t>22-FEB-2020</t>
+  </si>
+  <si>
+    <t>23-FEB-2020</t>
+  </si>
+  <si>
+    <t>24-FEB-2020</t>
+  </si>
+  <si>
+    <t>25-FEB-2020</t>
+  </si>
+  <si>
+    <t>26-FEB-2020</t>
+  </si>
+  <si>
+    <t>27-FEB-2020</t>
+  </si>
+  <si>
+    <t>28-FEB-2020</t>
+  </si>
+  <si>
+    <t>29-FEB-2020</t>
+  </si>
+  <si>
+    <t>01-MAR-2020</t>
+  </si>
+  <si>
+    <t>02-MAR-2020</t>
+  </si>
+  <si>
+    <t>03-MAR-2020</t>
+  </si>
+  <si>
+    <t>04-MAR-2020</t>
+  </si>
+  <si>
+    <t>05-MAR-2020</t>
+  </si>
+  <si>
+    <t>06-MAR-2020</t>
+  </si>
+  <si>
+    <t>07-MAR-2020</t>
+  </si>
+  <si>
+    <t>08-MAR-2020</t>
+  </si>
+  <si>
+    <t>09-MAR-2020</t>
+  </si>
+  <si>
+    <t>10-MAR-2020</t>
+  </si>
+  <si>
+    <t>11-MAR-2020</t>
+  </si>
+  <si>
+    <t>12-MAR-2020</t>
+  </si>
+  <si>
+    <t>13-MAR-2020</t>
+  </si>
+  <si>
+    <t>14-MAR-2020</t>
+  </si>
+  <si>
+    <t>15-MAR-2020</t>
+  </si>
+  <si>
+    <t>16-MAR-2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +226,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,10 +243,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF8A8A8A"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -80,9 +264,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,195 +586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC750E08-AF77-4716-A04A-3D0FC0B9CCAF}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B51DFE-2283-4A1B-ADB5-97B10E3977DA}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:28">
-      <c r="B1" s="1">
-        <v>43876</v>
-      </c>
-      <c r="C1" s="1">
-        <v>43877</v>
-      </c>
-      <c r="D1" s="1">
-        <v>43878</v>
-      </c>
-      <c r="E1" s="1">
-        <v>43879</v>
-      </c>
-      <c r="F1" s="1">
-        <v>43880</v>
-      </c>
-      <c r="G1" s="1">
-        <v>43881</v>
-      </c>
-      <c r="H1" s="1">
-        <v>43882</v>
-      </c>
-      <c r="I1" s="1">
-        <v>43883</v>
-      </c>
-      <c r="J1" s="1">
-        <v>43884</v>
-      </c>
-      <c r="K1" s="1">
-        <v>43885</v>
-      </c>
-      <c r="L1" s="1">
-        <v>43886</v>
-      </c>
-      <c r="M1" s="1">
-        <v>43887</v>
-      </c>
-      <c r="N1" s="1">
-        <v>43888</v>
-      </c>
-      <c r="O1" s="1">
-        <v>43889</v>
-      </c>
-      <c r="P1" s="1">
-        <v>43890</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>43891</v>
-      </c>
-      <c r="R1" s="1">
-        <v>43892</v>
-      </c>
-      <c r="S1" s="1">
-        <v>43893</v>
-      </c>
-      <c r="T1" s="1">
-        <v>43894</v>
-      </c>
-      <c r="U1" s="1">
-        <v>43895</v>
-      </c>
-      <c r="V1" s="1">
-        <v>43896</v>
-      </c>
-      <c r="W1" s="1">
-        <v>43897</v>
-      </c>
-      <c r="X1" s="1">
-        <v>43898</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>43899</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>43900</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>43901</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>43902</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>21</v>
-      </c>
-      <c r="I2">
-        <v>79</v>
-      </c>
-      <c r="J2">
-        <v>157</v>
-      </c>
-      <c r="K2">
-        <v>229</v>
-      </c>
-      <c r="L2">
-        <v>323</v>
-      </c>
-      <c r="M2">
-        <v>470</v>
-      </c>
-      <c r="N2">
-        <v>655</v>
-      </c>
-      <c r="O2">
-        <v>889</v>
-      </c>
-      <c r="P2">
-        <v>1128</v>
-      </c>
-      <c r="Q2">
-        <v>1701</v>
-      </c>
-      <c r="R2">
-        <v>2036</v>
-      </c>
-      <c r="S2">
-        <v>2502</v>
-      </c>
-      <c r="T2">
-        <v>3089</v>
-      </c>
-      <c r="U2">
-        <v>3858</v>
-      </c>
-      <c r="V2">
-        <v>4636</v>
-      </c>
-      <c r="W2">
-        <v>5883</v>
-      </c>
-      <c r="X2">
-        <v>7375</v>
-      </c>
-      <c r="Y2">
-        <v>9172</v>
-      </c>
-      <c r="Z2">
-        <v>10149</v>
-      </c>
-      <c r="AA2">
-        <v>12462</v>
-      </c>
-      <c r="AB2">
-        <v>15113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B51DFE-2283-4A1B-ADB5-97B10E3977DA}">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F26"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -595,17 +601,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -640,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F26" si="0">C3:C27+D3:D27</f>
+        <f t="shared" ref="F3:F27" si="0">C3:C27+D3:D27</f>
         <v>1</v>
       </c>
     </row>
@@ -1056,10 +1059,5136 @@
       <c r="F26">
         <f t="shared" si="0"/>
         <v>4144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B27">
+        <v>27980</v>
+      </c>
+      <c r="C27">
+        <v>2158</v>
+      </c>
+      <c r="D27">
+        <v>2749</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>4907</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BBD76C-5982-472F-8606-692F1A617B87}">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>104</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>204</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>433</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>602</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>833</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>977</v>
+      </c>
+      <c r="C36">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>1261</v>
+      </c>
+      <c r="C37">
+        <v>22</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>1766</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>2337</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>3150</v>
+      </c>
+      <c r="C40">
+        <v>27</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>3736</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>4335</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>5186</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>5621</v>
+      </c>
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>6088</v>
+      </c>
+      <c r="C45">
+        <v>41</v>
+      </c>
+      <c r="D45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>6593</v>
+      </c>
+      <c r="C46">
+        <v>135</v>
+      </c>
+      <c r="D46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>7041</v>
+      </c>
+      <c r="C47">
+        <v>135</v>
+      </c>
+      <c r="D47">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>7314</v>
+      </c>
+      <c r="C48">
+        <v>118</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>7478</v>
+      </c>
+      <c r="C49">
+        <v>118</v>
+      </c>
+      <c r="D49">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>7513</v>
+      </c>
+      <c r="C50">
+        <v>247</v>
+      </c>
+      <c r="D50">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>7755</v>
+      </c>
+      <c r="C51">
+        <v>288</v>
+      </c>
+      <c r="D51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>7869</v>
+      </c>
+      <c r="C52">
+        <v>333</v>
+      </c>
+      <c r="D52">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>7979</v>
+      </c>
+      <c r="C53">
+        <v>510</v>
+      </c>
+      <c r="D53">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>8086</v>
+      </c>
+      <c r="C54">
+        <v>510</v>
+      </c>
+      <c r="D54">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>8162</v>
+      </c>
+      <c r="C55">
+        <v>510</v>
+      </c>
+      <c r="D55">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>8236</v>
+      </c>
+      <c r="C56">
+        <v>1137</v>
+      </c>
+      <c r="D56">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47BBFBE-5FB6-4E93-A2EA-05E8D071E4F6}">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>57</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>191</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>204</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>288</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>380</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>656</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>957</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>1134</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>1217</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>1792</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>2289</v>
+      </c>
+      <c r="C51">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>2289</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>3672</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>4480</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>4513</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>6650</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59BAC9F-2756-4223-81B0-521A9F5F7D72}">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>79</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>130</v>
+      </c>
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>159</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>196</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>262</v>
+      </c>
+      <c r="C44">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>482</v>
+      </c>
+      <c r="C45">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>670</v>
+      </c>
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>799</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>1040</v>
+      </c>
+      <c r="C48">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>1176</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>1457</v>
+      </c>
+      <c r="C50">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>1908</v>
+      </c>
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>2078</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>3675</v>
+      </c>
+      <c r="C53">
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>4585</v>
+      </c>
+      <c r="C54">
+        <v>46</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>5795</v>
+      </c>
+      <c r="C55">
+        <v>46</v>
+      </c>
+      <c r="D55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>7272</v>
+      </c>
+      <c r="C56">
+        <v>67</v>
+      </c>
+      <c r="D56">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A31E81-DE17-4520-971A-943808CDEF20}">
+  <dimension ref="A1:HV220"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:230">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:230">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:230">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:230">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:230">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:230" ht="22.5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="2"/>
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6" s="3"/>
+      <c r="CM6" s="2"/>
+      <c r="CN6" s="2"/>
+      <c r="CO6" s="2"/>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="2"/>
+      <c r="CR6" s="2"/>
+      <c r="CS6" s="2"/>
+      <c r="CT6" s="3"/>
+      <c r="CU6" s="2"/>
+      <c r="CV6" s="2"/>
+      <c r="CW6" s="2"/>
+      <c r="CX6" s="3"/>
+      <c r="CY6" s="2"/>
+      <c r="CZ6" s="2"/>
+      <c r="DA6" s="2"/>
+      <c r="DB6" s="3"/>
+      <c r="DC6" s="2"/>
+      <c r="DD6" s="2"/>
+      <c r="DE6" s="2"/>
+      <c r="DF6" s="3"/>
+      <c r="DG6" s="2"/>
+      <c r="DH6" s="2"/>
+      <c r="DI6" s="2"/>
+      <c r="DJ6" s="3"/>
+      <c r="DK6" s="2"/>
+      <c r="DL6" s="2"/>
+      <c r="DM6" s="2"/>
+      <c r="DN6" s="3"/>
+      <c r="DO6" s="2"/>
+      <c r="DP6" s="2"/>
+      <c r="DQ6" s="2"/>
+      <c r="DR6" s="3"/>
+      <c r="DS6" s="2"/>
+      <c r="DT6" s="2"/>
+      <c r="DU6" s="2"/>
+      <c r="DV6" s="3"/>
+      <c r="DW6" s="2"/>
+      <c r="DX6" s="2"/>
+      <c r="DY6" s="2"/>
+      <c r="DZ6" s="3"/>
+      <c r="EA6" s="2"/>
+      <c r="EB6" s="2"/>
+      <c r="EC6" s="2"/>
+      <c r="ED6" s="3"/>
+      <c r="EE6" s="2"/>
+      <c r="EF6" s="2"/>
+      <c r="EG6" s="2"/>
+      <c r="EH6" s="3"/>
+      <c r="EI6" s="2"/>
+      <c r="EJ6" s="2"/>
+      <c r="EK6" s="2"/>
+      <c r="EL6" s="3"/>
+      <c r="EM6" s="2"/>
+      <c r="EN6" s="2"/>
+      <c r="EO6" s="2"/>
+      <c r="EP6" s="3"/>
+      <c r="EQ6" s="2"/>
+      <c r="ER6" s="2"/>
+      <c r="ES6" s="2"/>
+      <c r="ET6" s="3"/>
+      <c r="EU6" s="2"/>
+      <c r="EV6" s="2"/>
+      <c r="EW6" s="2"/>
+      <c r="EX6" s="3"/>
+      <c r="EY6" s="2"/>
+      <c r="EZ6" s="2"/>
+      <c r="FA6" s="2"/>
+      <c r="FB6" s="3"/>
+      <c r="FC6" s="2"/>
+      <c r="FD6" s="2"/>
+      <c r="FE6" s="2"/>
+      <c r="FF6" s="3"/>
+      <c r="FG6" s="2"/>
+      <c r="FH6" s="2"/>
+      <c r="FI6" s="2"/>
+      <c r="FJ6" s="3"/>
+      <c r="FK6" s="2"/>
+      <c r="FL6" s="2"/>
+      <c r="FM6" s="2"/>
+      <c r="FN6" s="3"/>
+      <c r="FO6" s="2"/>
+      <c r="FP6" s="2"/>
+      <c r="FQ6" s="2"/>
+      <c r="FR6" s="3"/>
+      <c r="FS6" s="2"/>
+      <c r="FT6" s="2"/>
+      <c r="FU6" s="2"/>
+      <c r="FV6" s="3"/>
+      <c r="FW6" s="2"/>
+      <c r="FX6" s="2"/>
+      <c r="FY6" s="2"/>
+      <c r="FZ6" s="3"/>
+      <c r="GA6" s="2"/>
+      <c r="GB6" s="2"/>
+      <c r="GC6" s="2"/>
+      <c r="GD6" s="3"/>
+      <c r="GE6" s="2"/>
+      <c r="GF6" s="2"/>
+      <c r="GG6" s="2"/>
+      <c r="GH6" s="3"/>
+      <c r="GI6" s="2"/>
+      <c r="GJ6" s="2"/>
+      <c r="GK6" s="2"/>
+      <c r="GL6" s="3"/>
+      <c r="GM6" s="2"/>
+      <c r="GN6" s="2"/>
+      <c r="GO6" s="2"/>
+      <c r="GP6" s="3"/>
+      <c r="GQ6" s="2"/>
+      <c r="GR6" s="2"/>
+      <c r="GS6" s="2"/>
+      <c r="GT6" s="3"/>
+      <c r="GU6" s="2"/>
+      <c r="GV6" s="2"/>
+      <c r="GW6" s="2"/>
+      <c r="GX6" s="3"/>
+      <c r="GY6" s="2"/>
+      <c r="GZ6" s="2"/>
+      <c r="HA6" s="2"/>
+      <c r="HB6" s="3"/>
+      <c r="HC6" s="2"/>
+      <c r="HD6" s="2"/>
+      <c r="HE6" s="2"/>
+      <c r="HF6" s="3"/>
+      <c r="HG6" s="2"/>
+      <c r="HH6" s="2"/>
+      <c r="HI6" s="2"/>
+      <c r="HJ6" s="3"/>
+      <c r="HK6" s="2"/>
+      <c r="HL6" s="2"/>
+      <c r="HM6" s="2">
+        <v>195</v>
+      </c>
+      <c r="HN6" s="3">
+        <v>517</v>
+      </c>
+      <c r="HO6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="HP6" s="2">
+        <v>7798</v>
+      </c>
+      <c r="HQ6" s="2">
+        <v>289</v>
+      </c>
+      <c r="HR6" s="3">
+        <v>517</v>
+      </c>
+      <c r="HS6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="HT6" s="2">
+        <v>9942</v>
+      </c>
+      <c r="HU6" s="2">
+        <v>342</v>
+      </c>
+      <c r="HV6" s="3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:230">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:230">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:230">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:230">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:230">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:230">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:230">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:230">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:230">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:230">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>84</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>120</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>165</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>222</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>259</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>400</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>500</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>673</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>17</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>1073</v>
+      </c>
+      <c r="C49">
+        <v>32</v>
+      </c>
+      <c r="D49">
+        <v>28</v>
+      </c>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>1695</v>
+      </c>
+      <c r="C50">
+        <v>32</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>2277</v>
+      </c>
+      <c r="C51">
+        <v>183</v>
+      </c>
+      <c r="D51">
+        <v>54</v>
+      </c>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>2277</v>
+      </c>
+      <c r="C52">
+        <v>183</v>
+      </c>
+      <c r="D52">
+        <v>55</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>5232</v>
+      </c>
+      <c r="C53">
+        <v>193</v>
+      </c>
+      <c r="D53">
+        <v>133</v>
+      </c>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>6391</v>
+      </c>
+      <c r="C54">
+        <v>517</v>
+      </c>
+      <c r="D54">
+        <v>195</v>
+      </c>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>7798</v>
+      </c>
+      <c r="C55">
+        <v>517</v>
+      </c>
+      <c r="D55">
+        <v>289</v>
+      </c>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>9942</v>
+      </c>
+      <c r="C56">
+        <v>530</v>
+      </c>
+      <c r="D56">
+        <v>342</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="22.5">
+      <c r="H57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="22.5">
+      <c r="H61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8" ht="22.5">
+      <c r="H65" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8">
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8" ht="22.5">
+      <c r="H69" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8">
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8">
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8" ht="22.5">
+      <c r="H73" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="H74" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8">
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8" ht="22.5">
+      <c r="H77" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="H78" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8">
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="8:8">
+      <c r="H80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8" ht="22.5">
+      <c r="H81" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8">
+      <c r="H82" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8" ht="22.5">
+      <c r="H85" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8">
+      <c r="H86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8">
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8">
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8" ht="22.5">
+      <c r="H89" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8">
+      <c r="H90" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8">
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8">
+      <c r="H92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8" ht="22.5">
+      <c r="H93" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="8:8">
+      <c r="H94" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="8:8">
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8">
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="8:8" ht="22.5">
+      <c r="H97" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="8:8">
+      <c r="H98" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="8:8">
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="8:8">
+      <c r="H100" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="8:8" ht="22.5">
+      <c r="H101" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="8:8">
+      <c r="H102" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="8:8">
+      <c r="H103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8">
+      <c r="H104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="8:8" ht="22.5">
+      <c r="H105" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8">
+      <c r="H106" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="8:8">
+      <c r="H107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="8:8">
+      <c r="H108" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="8:8" ht="22.5">
+      <c r="H109" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="8:8">
+      <c r="H110" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="8:8">
+      <c r="H111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="8:8">
+      <c r="H112" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="8:8" ht="22.5">
+      <c r="H113" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="8:8">
+      <c r="H114" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="8:8">
+      <c r="H115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="8:8">
+      <c r="H116" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="8:8" ht="22.5">
+      <c r="H117" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="8:8">
+      <c r="H118" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="8:8">
+      <c r="H119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="8:8">
+      <c r="H120" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="8:8" ht="22.5">
+      <c r="H121" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="8:8">
+      <c r="H122" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="8:8">
+      <c r="H123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="8:8">
+      <c r="H124" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="8:8" ht="22.5">
+      <c r="H125" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="8:8">
+      <c r="H126" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="8:8">
+      <c r="H127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="8:8">
+      <c r="H128" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="8:8" ht="22.5">
+      <c r="H129" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="8:8">
+      <c r="H130" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="8:8">
+      <c r="H131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="8:8">
+      <c r="H132" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="8:8" ht="22.5">
+      <c r="H133" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="8:8">
+      <c r="H134" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="8:8">
+      <c r="H135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="8:8">
+      <c r="H136" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="8:8" ht="22.5">
+      <c r="H137" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="8:8">
+      <c r="H138" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="8:8">
+      <c r="H139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="8:8">
+      <c r="H140" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="8:8" ht="22.5">
+      <c r="H141" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="8:8">
+      <c r="H142" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="8:8">
+      <c r="H143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="8:8">
+      <c r="H144" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="8:8" ht="22.5">
+      <c r="H145" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="8:8">
+      <c r="H146" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="8:8">
+      <c r="H147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="8:8">
+      <c r="H148" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="8:8" ht="22.5">
+      <c r="H149" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="8:8">
+      <c r="H150" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="8:8">
+      <c r="H151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="8:8">
+      <c r="H152" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="8:8" ht="22.5">
+      <c r="H153" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="8:8">
+      <c r="H154" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="8:8">
+      <c r="H155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="8:8">
+      <c r="H156" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="8:8" ht="22.5">
+      <c r="H157" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="8:8">
+      <c r="H158" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159" spans="8:8">
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="8:8">
+      <c r="H160" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="8:8" ht="22.5">
+      <c r="H161" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="162" spans="8:8">
+      <c r="H162" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163" spans="8:8">
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="8:8">
+      <c r="H164" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="8:8" ht="22.5">
+      <c r="H165" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166" spans="8:8">
+      <c r="H166" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="8:8">
+      <c r="H167" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="8:8">
+      <c r="H168" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="8:8" ht="22.5">
+      <c r="H169" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="8:8">
+      <c r="H170" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="171" spans="8:8">
+      <c r="H171" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="8:8">
+      <c r="H172" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="8:8" ht="22.5">
+      <c r="H173" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="8:8">
+      <c r="H174" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="175" spans="8:8">
+      <c r="H175" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="8:8">
+      <c r="H176" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="8:8" ht="22.5">
+      <c r="H177" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="178" spans="8:8">
+      <c r="H178" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="179" spans="8:8">
+      <c r="H179" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="8:8">
+      <c r="H180" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="8:8" ht="22.5">
+      <c r="H181" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="182" spans="8:8">
+      <c r="H182" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183" spans="8:8">
+      <c r="H183" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="8:8">
+      <c r="H184" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="8:8" ht="22.5">
+      <c r="H185" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="186" spans="8:8">
+      <c r="H186" s="2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="187" spans="8:8">
+      <c r="H187" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="8:8">
+      <c r="H188" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="8:8" ht="22.5">
+      <c r="H189" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="8:8">
+      <c r="H190" s="2">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="191" spans="8:8">
+      <c r="H191" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="8:8">
+      <c r="H192" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="8:8" ht="22.5">
+      <c r="H193" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="8:8">
+      <c r="H194" s="2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="195" spans="8:8">
+      <c r="H195" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="8:8">
+      <c r="H196" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="8:8" ht="22.5">
+      <c r="H197" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="8:8">
+      <c r="H198" s="2">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="199" spans="8:8">
+      <c r="H199" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="200" spans="8:8">
+      <c r="H200" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="201" spans="8:8" ht="22.5">
+      <c r="H201" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="202" spans="8:8">
+      <c r="H202" s="2">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="203" spans="8:8">
+      <c r="H203" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" spans="8:8">
+      <c r="H204" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="205" spans="8:8" ht="22.5">
+      <c r="H205" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="206" spans="8:8">
+      <c r="H206" s="2">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="207" spans="8:8">
+      <c r="H207" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="208" spans="8:8">
+      <c r="H208" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="209" spans="8:8" ht="22.5">
+      <c r="H209" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" spans="8:8">
+      <c r="H210" s="2">
+        <v>6391</v>
+      </c>
+    </row>
+    <row r="211" spans="8:8">
+      <c r="H211" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="212" spans="8:8">
+      <c r="H212" s="3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="213" spans="8:8" ht="22.5">
+      <c r="H213" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="214" spans="8:8">
+      <c r="H214" s="2">
+        <v>7798</v>
+      </c>
+    </row>
+    <row r="215" spans="8:8">
+      <c r="H215" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="216" spans="8:8">
+      <c r="H216" s="3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="217" spans="8:8" ht="22.5">
+      <c r="H217" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="218" spans="8:8">
+      <c r="H218" s="2">
+        <v>9942</v>
+      </c>
+    </row>
+    <row r="219" spans="8:8">
+      <c r="H219" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="220" spans="8:8">
+      <c r="H220" s="3">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6AB5DE-A88C-4D35-B27E-3874714AFE05}">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>51</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>57</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>68</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>74</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>98</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>118</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>149</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>217</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>262</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>402</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>518</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>583</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>959</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>1281</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>1663</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>2179</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>2727</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>3499</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>4632</v>
+      </c>
+      <c r="C56">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>